--- a/lab_of_0722.xlsx
+++ b/lab_of_0722.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="37">
   <si>
     <t>AUC
 (AUC of ROC Curve)</t>
@@ -262,6 +262,176 @@
       <t>zheng'fu</t>
     </rPh>
     <rPh sb="75" eb="76">
+      <t>bi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n = 4
+n_d = 3
+n_w = 3
+time_interval=30
+spatial_interval=500
+只有当前点事故数据
+正负样本比例=1：1</t>
+    <rPh sb="60" eb="61">
+      <t>zhi'you</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>you</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>shi'gu</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>s'ju</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>zheng'fu</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>bi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n = 4
+n_d = 3
+n_w = 3
+time_interval=45
+spatial_interval=500
+只有当前点事故数据
+正负样本比例=1：1</t>
+    <rPh sb="60" eb="61">
+      <t>zhi'you</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>you</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>shi'gu</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>s'ju</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>zheng'fu</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>bi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n = 4
+n_d = 3
+n_w = 3
+time_interval=45
+spatial_interval=1000
+只有当前点事故数据
+正负样本比例=1：1</t>
+    <rPh sb="61" eb="62">
+      <t>zhi'you</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>you</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>shi'gu</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>s'ju</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>zheng'fu</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>bi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n = 4
+n_d = 3
+n_w = 3
+time_interval=15
+spatial_interval=1000
+只有当前点事故数据
+正负样本比例=1：1</t>
+    <rPh sb="61" eb="62">
+      <t>zhi'you</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>you</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>shi'gu</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>s'ju</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>zheng'fu</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>bi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n = 4
+n_d = 3
+n_w = 3
+time_interval=15
+spatial_interval=500
+只有当前点事故数据
+正负样本比例=1：1</t>
+    <rPh sb="60" eb="61">
+      <t>zhi'you</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>you</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>shi'gu</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>s'ju</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>zheng'fu</t>
+    </rPh>
+    <rPh sb="74" eb="75">
       <t>bi'li</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -693,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="136" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1663,11 +1833,1606 @@
         <v>0.86009824223999998</v>
       </c>
     </row>
+    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A39" s="9"/>
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="5">
+        <v>6.1389595728300002E-2</v>
+      </c>
+      <c r="E39" s="5">
+        <v>5.1650730883599998E-2</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.119044414187</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.92658895365000005</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.99371881305700005</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.950604277464</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0.99000308058499997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A40" s="9"/>
+      <c r="B40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="5">
+        <v>6.88589441341E-2</v>
+      </c>
+      <c r="E40" s="5">
+        <v>6.0294904298499999E-2</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.19767435751000001</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.86705559014</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0.91460892572499997</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0.95663874868900001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="9"/>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="5">
+        <v>6.4855324063500003E-2</v>
+      </c>
+      <c r="E41" s="5">
+        <v>6.4855324063500003E-2</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.112786043958</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.92695591347299999</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0.99909778610599997</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0.95307137031</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0.93105489636600003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A42" s="9"/>
+      <c r="B42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0.25122515425500003</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.11271416454200001</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.335462620612</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.95416018217599996</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0.97375139109200004</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0.96005883210599996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A43" s="9"/>
+      <c r="B43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="5">
+        <v>4.0113815902700002E-2</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1.98198856907E-2</v>
+      </c>
+      <c r="F43" s="5">
+        <v>6.94554156586E-2</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.92711284230400004</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.99875078076199997</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0.95303201506599999</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0.99379615877399996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="9"/>
+      <c r="B44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="5">
+        <v>5.55634327199E-3</v>
+      </c>
+      <c r="E44" s="5">
+        <v>4.0212108757100001E-3</v>
+      </c>
+      <c r="F44" s="5">
+        <v>6.0676514211499999E-2</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.99543625042600004</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.99597421049299995</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0.99569719027000003</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0.99172113783500004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A45" s="9"/>
+      <c r="B45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="5">
+        <v>5.2107342874199998E-2</v>
+      </c>
+      <c r="E45" s="5">
+        <v>3.10767880144E-2</v>
+      </c>
+      <c r="F45" s="5">
+        <v>8.6953160203999999E-2</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.92694901218500003</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0.99809147060900005</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0.95272580969599996</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0.992444095671</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46" s="9"/>
+      <c r="B46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1.39362244068E-3</v>
+      </c>
+      <c r="E46" s="5">
+        <v>8.0418873066800001E-4</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1.6660945790199999E-2</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.99989591284299995</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0.99850787702099997</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0.99919853124000002</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0.99421096943499998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" s="10"/>
+      <c r="B47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="5">
+        <v>3.2410382220700001E-2</v>
+      </c>
+      <c r="E47" s="5">
+        <v>3.2410382220700001E-2</v>
+      </c>
+      <c r="F47" s="5">
+        <v>9.0050444031400001E-2</v>
+      </c>
+      <c r="G47" s="5">
+        <v>1</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0.93517923555899996</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0.96025982380899999</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0.962866490327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="60" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A50" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A51" s="9"/>
+      <c r="B51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.21358748944</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0.154131164589</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0.31863526701099998</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.79605811168100005</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0.84258956867299994</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0.81309706335300003</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0.86280123292499999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A52" s="9"/>
+      <c r="B52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0.17551823578600001</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.138542836053</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.28840978369100001</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.87079297691699997</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0.81359140574800004</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0.83285997284500002</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0.826628895704</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53" s="9"/>
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="5">
+        <v>0.12074678757600001</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0.12074678757600001</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0.194730755206</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.86685272449799999</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0.95701620521800002</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0.90348140349899997</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0.87588302912399996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A54" s="9"/>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0.43340819873199998</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.25131566177499998</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.485094685975</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.65239066279000002</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0.91634912345300001</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0.75256743996800002</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0.86490314205100005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A55" s="9"/>
+      <c r="B55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0.40629394727500001</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0.35013154544500003</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0.58277473633499999</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0.56801881384899999</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0.95211089582899999</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0.70796863095399998</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0.66111604676000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A56" s="9"/>
+      <c r="B56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0.35851937255999999</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0.31939202207799999</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0.55361826389799995</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0.60751771254800002</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0.912316414164</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0.71868550176199997</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0.877803909464</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A57" s="9"/>
+      <c r="B57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0.41746104690199998</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0.36991951636600001</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0.60093760896500004</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0.55477513971199999</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0.94371489289199995</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0.69631569406399996</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0.62102252331700003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A58" s="9"/>
+      <c r="B58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0.39296469134400003</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0.38378476766699998</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0.59341870799200003</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0.59858814628699997</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0.91046295501399999</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0.71214431029900005</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0.61335185720700003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59" s="10"/>
+      <c r="B59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0.127945639365</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0.127945639365</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0.27147090315700001</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0.92147626836700003</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0.83343317812899997</v>
+      </c>
+      <c r="I59" s="5">
+        <v>0.845427374663</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0.86942875686700005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="60" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A62" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A63" s="9"/>
+      <c r="B63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="5">
+        <v>5.6780884740699998E-2</v>
+      </c>
+      <c r="E63" s="5">
+        <v>3.9174443516000003E-2</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0.10926666146900001</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0.92702679856400005</v>
+      </c>
+      <c r="H63" s="5">
+        <v>0.99397994396800005</v>
+      </c>
+      <c r="I63" s="5">
+        <v>0.95106041182099998</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0.99034400489999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A64" s="9"/>
+      <c r="B64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="5">
+        <v>6.2701204025799998E-2</v>
+      </c>
+      <c r="E64" s="5">
+        <v>5.6096237729999998E-2</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0.189773078604</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0.99978474301800002</v>
+      </c>
+      <c r="H64" s="5">
+        <v>0.88026432918099995</v>
+      </c>
+      <c r="I64" s="5">
+        <v>0.92442893876700005</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0.95046743453899996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A65" s="9"/>
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="5">
+        <v>0.11107990873199999</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0.11107990873199999</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0.19676663470700001</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0.86764959733799996</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0.99919501610000006</v>
+      </c>
+      <c r="I65" s="5">
+        <v>0.91697110483400002</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0.88560114790400002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A66" s="9"/>
+      <c r="B66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0.27731327153899998</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0.126122458833</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0.353478919547</v>
+      </c>
+      <c r="G66" s="5">
+        <v>0.94029478849799997</v>
+      </c>
+      <c r="H66" s="5">
+        <v>0.95387045945299997</v>
+      </c>
+      <c r="I66" s="5">
+        <v>0.937667049877</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0.95899359630000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A67" s="9"/>
+      <c r="B67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="5">
+        <v>6.3761846756700005E-2</v>
+      </c>
+      <c r="E67" s="5">
+        <v>3.0255047615700002E-2</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0.110239023467</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0.94964486896900002</v>
+      </c>
+      <c r="H67" s="5">
+        <v>0.99779495588400002</v>
+      </c>
+      <c r="I67" s="5">
+        <v>0.96930272450199995</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0.99329414312200004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A68" s="9"/>
+      <c r="B68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="5">
+        <v>6.2071181712899997E-3</v>
+      </c>
+      <c r="E68" s="5">
+        <v>4.42152551333E-3</v>
+      </c>
+      <c r="F68" s="5">
+        <v>5.7927775267700002E-2</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0.99684342229599998</v>
+      </c>
+      <c r="H68" s="5">
+        <v>0.99415463171499996</v>
+      </c>
+      <c r="I68" s="5">
+        <v>0.99549096113299995</v>
+      </c>
+      <c r="J68" s="3">
+        <v>0.99247540295199999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A69" s="9"/>
+      <c r="B69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="5">
+        <v>8.5810765344800005E-2</v>
+      </c>
+      <c r="E69" s="5">
+        <v>5.6247569812700002E-2</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0.14756054430900001</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0.86687074999500002</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0.99608007839799995</v>
+      </c>
+      <c r="I69" s="5">
+        <v>0.91552083770600001</v>
+      </c>
+      <c r="J69" s="3">
+        <v>0.986478873644</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A70" s="9"/>
+      <c r="B70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="5">
+        <v>4.90819378818E-2</v>
+      </c>
+      <c r="E70" s="5">
+        <v>4.8467176281299998E-2</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0.114409540682</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0.93911156182400002</v>
+      </c>
+      <c r="H70" s="5">
+        <v>0.99600961666999999</v>
+      </c>
+      <c r="I70" s="5">
+        <v>0.96147174687500003</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0.94799005036200001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A71" s="10"/>
+      <c r="B71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="5">
+        <v>7.1723280405199999E-2</v>
+      </c>
+      <c r="E71" s="5">
+        <v>7.1723280405199999E-2</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0.163496138258</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0.94065416326899998</v>
+      </c>
+      <c r="H71" s="5">
+        <v>0.94827086550100004</v>
+      </c>
+      <c r="I71" s="5">
+        <v>0.93390504542200004</v>
+      </c>
+      <c r="J71" s="3">
+        <v>0.92432134208000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="60" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A74" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A75" s="9"/>
+      <c r="B75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0.129421132257</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0.116732875492</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0.211160723577</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0.86013373324800002</v>
+      </c>
+      <c r="H75" s="5">
+        <v>0.97971495865799996</v>
+      </c>
+      <c r="I75" s="5">
+        <v>0.90493750535799999</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0.93615604909600003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A76" s="9"/>
+      <c r="B76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="5">
+        <v>0.103549833753</v>
+      </c>
+      <c r="E76" s="5">
+        <v>8.3189476208400004E-2</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0.229405071909</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0.93066845437699997</v>
+      </c>
+      <c r="H76" s="5">
+        <v>0.84939019271299998</v>
+      </c>
+      <c r="I76" s="5">
+        <v>0.885411381133</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0.91578851280999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A77" s="9"/>
+      <c r="B77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="5">
+        <v>0.14613764759</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0.14613764759</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0.222135195083</v>
+      </c>
+      <c r="G77" s="5">
+        <v>0.84481123247199996</v>
+      </c>
+      <c r="H77" s="5">
+        <v>0.99710720758399995</v>
+      </c>
+      <c r="I77" s="5">
+        <v>0.89800621469300002</v>
+      </c>
+      <c r="J77" s="3">
+        <v>0.850512145213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A78" s="9"/>
+      <c r="B78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="5">
+        <v>0.36029614534299997</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0.202766835684</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0.426875309812</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0.832138560561</v>
+      </c>
+      <c r="H78" s="5">
+        <v>0.95326173766300004</v>
+      </c>
+      <c r="I78" s="5">
+        <v>0.87566854806299999</v>
+      </c>
+      <c r="J78" s="3">
+        <v>0.93812915020999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A79" s="9"/>
+      <c r="B79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="5">
+        <v>0.119246061707</v>
+      </c>
+      <c r="E79" s="5">
+        <v>9.9266879749100007E-2</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0.188888855922</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0.87069432171100003</v>
+      </c>
+      <c r="H79" s="5">
+        <v>0.99487662066100002</v>
+      </c>
+      <c r="I79" s="5">
+        <v>0.91630282758799997</v>
+      </c>
+      <c r="J79" s="3">
+        <v>0.94299517993699999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A80" s="9"/>
+      <c r="B80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="5">
+        <v>0.12823816867999999</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0.118945015064</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0.217321482964</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0.85535718805299998</v>
+      </c>
+      <c r="H80" s="5">
+        <v>0.99532945348400004</v>
+      </c>
+      <c r="I80" s="5">
+        <v>0.90575289633800005</v>
+      </c>
+      <c r="J80" s="3">
+        <v>0.96707337715099995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A81" s="9"/>
+      <c r="B81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0.13011916994299999</v>
+      </c>
+      <c r="E81" s="5">
+        <v>0.11025525617199999</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0.20328001751200001</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0.85485898714999997</v>
+      </c>
+      <c r="H81" s="5">
+        <v>0.99090338770399999</v>
+      </c>
+      <c r="I81" s="5">
+        <v>0.90395751318799999</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0.92707489376899999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A82" s="9"/>
+      <c r="B82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0.13247011940199999</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0.1313762624</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0.22899024556200001</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0.85499435858499995</v>
+      </c>
+      <c r="H82" s="5">
+        <v>0.99550375453700002</v>
+      </c>
+      <c r="I82" s="5">
+        <v>0.90566560483400005</v>
+      </c>
+      <c r="J82" s="3">
+        <v>0.86559000731299995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A83" s="10"/>
+      <c r="B83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="5">
+        <v>0.138452717089</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0.138452717089</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0.21405803919700001</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0.91791523972599998</v>
+      </c>
+      <c r="H83" s="5">
+        <v>0.88352125479999999</v>
+      </c>
+      <c r="I83" s="5">
+        <v>0.85731368649600004</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0.85791850635199995</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="60" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A86" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A87" s="9"/>
+      <c r="B87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="5">
+        <v>6.9445871326700007E-2</v>
+      </c>
+      <c r="E87" s="5">
+        <v>6.4762804778899993E-2</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0.13273798252999999</v>
+      </c>
+      <c r="G87" s="5">
+        <v>0.92632331902700005</v>
+      </c>
+      <c r="H87" s="5">
+        <v>0.99037378915800001</v>
+      </c>
+      <c r="I87" s="5">
+        <v>0.94926091811400004</v>
+      </c>
+      <c r="J87" s="3">
+        <v>0.98651642201800005</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A88" s="9"/>
+      <c r="B88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="5">
+        <v>7.7809334183600004E-2</v>
+      </c>
+      <c r="E88" s="5">
+        <v>6.6087178407799999E-2</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0.20849011695200001</v>
+      </c>
+      <c r="G88" s="5">
+        <v>1</v>
+      </c>
+      <c r="H88" s="5">
+        <v>0.85460791217900001</v>
+      </c>
+      <c r="I88" s="5">
+        <v>0.90472704203999998</v>
+      </c>
+      <c r="J88" s="3">
+        <v>0.95661219310599999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A89" s="9"/>
+      <c r="B89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="5">
+        <v>6.4631498609900001E-2</v>
+      </c>
+      <c r="E89" s="5">
+        <v>6.4631498609900001E-2</v>
+      </c>
+      <c r="F89" s="5">
+        <v>0.117440049275</v>
+      </c>
+      <c r="G89" s="5">
+        <v>0.92688679250200001</v>
+      </c>
+      <c r="H89" s="5">
+        <v>0.99883113311299998</v>
+      </c>
+      <c r="I89" s="5">
+        <v>0.95305218309600004</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0.93144992866200005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A90" s="9"/>
+      <c r="B90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="5">
+        <v>0.25293285287099998</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0.114344806772</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0.33790021237200002</v>
+      </c>
+      <c r="G90" s="5">
+        <v>0.99993078375800004</v>
+      </c>
+      <c r="H90" s="5">
+        <v>0.95348551966299999</v>
+      </c>
+      <c r="I90" s="5">
+        <v>0.97330452287500002</v>
+      </c>
+      <c r="J90" s="3">
+        <v>0.960134286931</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A91" s="9"/>
+      <c r="B91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="5">
+        <v>3.5602365451799997E-2</v>
+      </c>
+      <c r="E91" s="5">
+        <v>1.48615709032E-2</v>
+      </c>
+      <c r="F91" s="5">
+        <v>6.1215947724999997E-2</v>
+      </c>
+      <c r="G91" s="5">
+        <v>1</v>
+      </c>
+      <c r="H91" s="5">
+        <v>0.99649311563099996</v>
+      </c>
+      <c r="I91" s="5">
+        <v>0.99823684982399996</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0.99352033581400001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A92" s="9"/>
+      <c r="B92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="5">
+        <v>3.7863621136399999E-3</v>
+      </c>
+      <c r="E92" s="5">
+        <v>2.2171175373199999E-3</v>
+      </c>
+      <c r="F92" s="5">
+        <v>4.4609827441999997E-2</v>
+      </c>
+      <c r="G92" s="5">
+        <v>0.99835092074200005</v>
+      </c>
+      <c r="H92" s="5">
+        <v>0.99690570653400001</v>
+      </c>
+      <c r="I92" s="5">
+        <v>0.99762369473599999</v>
+      </c>
+      <c r="J92" s="3">
+        <v>0.99305542392699997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A93" s="9"/>
+      <c r="B93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="5">
+        <v>4.68353697562E-2</v>
+      </c>
+      <c r="E93" s="5">
+        <v>2.5938511004099999E-2</v>
+      </c>
+      <c r="F93" s="5">
+        <v>7.7101265630100002E-2</v>
+      </c>
+      <c r="G93" s="5">
+        <v>0.92725739389700002</v>
+      </c>
+      <c r="H93" s="5">
+        <v>0.997971672167</v>
+      </c>
+      <c r="I93" s="5">
+        <v>0.95294470253300001</v>
+      </c>
+      <c r="J93" s="3">
+        <v>0.99299945039199999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A94" s="9"/>
+      <c r="B94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="5">
+        <v>2.9349476881999998E-3</v>
+      </c>
+      <c r="E94" s="5">
+        <v>1.7491655508E-3</v>
+      </c>
+      <c r="F94" s="5">
+        <v>2.7743668475899999E-2</v>
+      </c>
+      <c r="G94" s="5">
+        <v>0.99972514245699995</v>
+      </c>
+      <c r="H94" s="5">
+        <v>0.996802769817</v>
+      </c>
+      <c r="I94" s="5">
+        <v>0.99825002199099999</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0.99331589188199998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A95" s="10"/>
+      <c r="B95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="5">
+        <v>3.8830569667199999E-2</v>
+      </c>
+      <c r="E95" s="5">
+        <v>3.8830569667199999E-2</v>
+      </c>
+      <c r="F95" s="5">
+        <v>9.7849095571099998E-2</v>
+      </c>
+      <c r="G95" s="5">
+        <v>1</v>
+      </c>
+      <c r="H95" s="5">
+        <v>0.92233886066600002</v>
+      </c>
+      <c r="I95" s="5">
+        <v>0.95007901024499997</v>
+      </c>
+      <c r="J95" s="3">
+        <v>0.95651115325900005</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="A62:A71"/>
+    <mergeCell ref="A74:A83"/>
+    <mergeCell ref="A86:A95"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="A50:A59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
